--- a/cards.xlsx
+++ b/cards.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udyan Sharma\Documents\GitHub\payment_cards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CD7146-9B8D-435C-9739-0F3C09E428C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1944" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CARDNO</t>
   </si>
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +110,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8172450201673240</v>
       </c>
@@ -429,192 +484,12 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2104</v>
+        <v>3705</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>8172450201673318</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2229</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>8172450201673656</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>3962</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>8172450201673680</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>677</v>
-      </c>
-      <c r="D5">
-        <v>7461</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>8172450201673706</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>651</v>
-      </c>
-      <c r="D6">
-        <v>8464</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>8172450201673730</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>899</v>
-      </c>
-      <c r="D7">
-        <v>3012</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>8172450201673367</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>766</v>
-      </c>
-      <c r="D8">
-        <v>9456</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8172450201673458</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>445</v>
-      </c>
-      <c r="D9">
-        <v>5021</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>8172450201673482</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>415</v>
-      </c>
-      <c r="D10">
-        <v>1878</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>8172450201673532</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>179</v>
-      </c>
-      <c r="D11">
-        <v>1049</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>1</v>
       </c>
     </row>
